--- a/src/predicciones/holt_winters/producto_23.xlsx
+++ b/src/predicciones/holt_winters/producto_23.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2574 +404,2574 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.303702896978797</v>
+        <v>1.406753184694269</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44932</v>
       </c>
       <c r="B3">
-        <v>1.577057155581887</v>
+        <v>1.650584516262711</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>1.594463960218187</v>
+        <v>1.641754841478861</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>2.49689639027018</v>
+        <v>2.529959120557093</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>2.407363816037453</v>
+        <v>2.424403906424827</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>1.370856453203387</v>
+        <v>1.417870687206491</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44937</v>
       </c>
       <c r="B8">
-        <v>1.053209213892245</v>
+        <v>1.119826305141098</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44938</v>
       </c>
       <c r="B9">
-        <v>1.309154081432792</v>
+        <v>1.414229749509639</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44940</v>
       </c>
       <c r="B10">
-        <v>1.582508340035882</v>
+        <v>1.658061081078082</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44941</v>
       </c>
       <c r="B11">
-        <v>1.599915144672182</v>
+        <v>1.649231406294231</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44943</v>
       </c>
       <c r="B12">
-        <v>2.502347574724174</v>
+        <v>2.537435685372464</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44945</v>
       </c>
       <c r="B13">
-        <v>2.412815000491448</v>
+        <v>2.431880471240197</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44946</v>
       </c>
       <c r="B14">
-        <v>1.376307637657381</v>
+        <v>1.425347252021862</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44947</v>
       </c>
       <c r="B15">
-        <v>1.05866039834624</v>
+        <v>1.127302869956469</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44949</v>
       </c>
       <c r="B16">
-        <v>1.314605265886787</v>
+        <v>1.42170631432501</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44951</v>
       </c>
       <c r="B17">
-        <v>1.587959524489876</v>
+        <v>1.665537645893452</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44952</v>
       </c>
       <c r="B18">
-        <v>1.605366329126177</v>
+        <v>1.656707971109602</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44954</v>
       </c>
       <c r="B19">
-        <v>2.507798759178169</v>
+        <v>2.544912250187834</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44955</v>
       </c>
       <c r="B20">
-        <v>2.418266184945443</v>
+        <v>2.439357036055568</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44956</v>
       </c>
       <c r="B21">
-        <v>1.381758822111376</v>
+        <v>1.432823816837233</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44963</v>
       </c>
       <c r="B22">
-        <v>1.064111582800235</v>
+        <v>1.134779434771839</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44965</v>
       </c>
       <c r="B23">
-        <v>1.320056450340781</v>
+        <v>1.42918287914038</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44966</v>
       </c>
       <c r="B24">
-        <v>1.593410708943871</v>
+        <v>1.673014210708823</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44967</v>
       </c>
       <c r="B25">
-        <v>1.610817513580172</v>
+        <v>1.664184535924972</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44968</v>
       </c>
       <c r="B26">
-        <v>2.513249943632164</v>
+        <v>2.552388815003205</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44969</v>
       </c>
       <c r="B27">
-        <v>2.423717369399438</v>
+        <v>2.446833600870938</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44972</v>
       </c>
       <c r="B28">
-        <v>1.387210006565371</v>
+        <v>1.440300381652603</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44973</v>
       </c>
       <c r="B29">
-        <v>1.069562767254229</v>
+        <v>1.14225599958721</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44977</v>
       </c>
       <c r="B30">
-        <v>1.325507634794776</v>
+        <v>1.436659443955751</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44980</v>
       </c>
       <c r="B31">
-        <v>1.598861893397866</v>
+        <v>1.680490775524193</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44981</v>
       </c>
       <c r="B32">
-        <v>1.616268698034167</v>
+        <v>1.671661100740343</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44984</v>
       </c>
       <c r="B33">
-        <v>2.518701128086159</v>
+        <v>2.559865379818575</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44986</v>
       </c>
       <c r="B34">
-        <v>2.429168553853432</v>
+        <v>2.454310165686309</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44988</v>
       </c>
       <c r="B35">
-        <v>1.392661191019366</v>
+        <v>1.447776946467974</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44990</v>
       </c>
       <c r="B36">
-        <v>1.075013951708224</v>
+        <v>1.149732564402581</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44991</v>
       </c>
       <c r="B37">
-        <v>1.330958819248771</v>
+        <v>1.444136008771121</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44994</v>
       </c>
       <c r="B38">
-        <v>1.604313077851861</v>
+        <v>1.687967340339564</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44995</v>
       </c>
       <c r="B39">
-        <v>1.621719882488161</v>
+        <v>1.679137665555714</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44997</v>
       </c>
       <c r="B40">
-        <v>2.524152312540154</v>
+        <v>2.567341944633946</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45002</v>
       </c>
       <c r="B41">
-        <v>2.434619738307427</v>
+        <v>2.461786730501679</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45004</v>
       </c>
       <c r="B42">
-        <v>1.398112375473361</v>
+        <v>1.455253511283344</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45009</v>
       </c>
       <c r="B43">
-        <v>1.080465136162219</v>
+        <v>1.157209129217951</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45010</v>
       </c>
       <c r="B44">
-        <v>1.336410003702766</v>
+        <v>1.451612573586492</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45015</v>
       </c>
       <c r="B45">
-        <v>1.609764262305856</v>
+        <v>1.695443905154934</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45016</v>
       </c>
       <c r="B46">
-        <v>1.627171066942156</v>
+        <v>1.686614230371084</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45017</v>
       </c>
       <c r="B47">
-        <v>2.529603496994149</v>
+        <v>2.574818509449317</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45018</v>
       </c>
       <c r="B48">
-        <v>2.440070922761422</v>
+        <v>2.46926329531705</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45019</v>
       </c>
       <c r="B49">
-        <v>1.403563559927356</v>
+        <v>1.462730076098715</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45021</v>
       </c>
       <c r="B50">
-        <v>1.085916320616214</v>
+        <v>1.164685694033322</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45022</v>
       </c>
       <c r="B51">
-        <v>1.341861188156761</v>
+        <v>1.459089138401862</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45026</v>
       </c>
       <c r="B52">
-        <v>1.615215446759851</v>
+        <v>1.702920469970305</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45028</v>
       </c>
       <c r="B53">
-        <v>1.632622251396151</v>
+        <v>1.694090795186455</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45029</v>
       </c>
       <c r="B54">
-        <v>2.535054681448143</v>
+        <v>2.582295074264687</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45030</v>
       </c>
       <c r="B55">
-        <v>2.445522107215417</v>
+        <v>2.47673986013242</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45031</v>
       </c>
       <c r="B56">
-        <v>1.40901474438135</v>
+        <v>1.470206640914085</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45034</v>
       </c>
       <c r="B57">
-        <v>1.091367505070209</v>
+        <v>1.172162258848692</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45035</v>
       </c>
       <c r="B58">
-        <v>1.347312372610756</v>
+        <v>1.466565703217233</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45036</v>
       </c>
       <c r="B59">
-        <v>1.620666631213845</v>
+        <v>1.710397034785675</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45038</v>
       </c>
       <c r="B60">
-        <v>1.638073435850146</v>
+        <v>1.701567360001825</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45041</v>
       </c>
       <c r="B61">
-        <v>2.540505865902138</v>
+        <v>2.589771639080058</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45042</v>
       </c>
       <c r="B62">
-        <v>2.450973291669412</v>
+        <v>2.484216424947791</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45043</v>
       </c>
       <c r="B63">
-        <v>1.414465928835345</v>
+        <v>1.477683205729456</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45048</v>
       </c>
       <c r="B64">
-        <v>1.096818689524204</v>
+        <v>1.179638823664063</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45049</v>
       </c>
       <c r="B65">
-        <v>1.35276355706475</v>
+        <v>1.474042268032604</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45050</v>
       </c>
       <c r="B66">
-        <v>1.62611781566784</v>
+        <v>1.717873599601046</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45051</v>
       </c>
       <c r="B67">
-        <v>1.643524620304141</v>
+        <v>1.709043924817196</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45053</v>
       </c>
       <c r="B68">
-        <v>2.545957050356133</v>
+        <v>2.597248203895428</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45054</v>
       </c>
       <c r="B69">
-        <v>2.456424476123407</v>
+        <v>2.491692989763162</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45057</v>
       </c>
       <c r="B70">
-        <v>1.41991711328934</v>
+        <v>1.485159770544826</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45058</v>
       </c>
       <c r="B71">
-        <v>1.102269873978198</v>
+        <v>1.187115388479433</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45059</v>
       </c>
       <c r="B72">
-        <v>1.358214741518745</v>
+        <v>1.481518832847974</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45060</v>
       </c>
       <c r="B73">
-        <v>1.631569000121835</v>
+        <v>1.725350164416416</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45063</v>
       </c>
       <c r="B74">
-        <v>1.648975804758136</v>
+        <v>1.716520489632566</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45065</v>
       </c>
       <c r="B75">
-        <v>2.551408234810128</v>
+        <v>2.604724768710799</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45066</v>
       </c>
       <c r="B76">
-        <v>2.461875660577401</v>
+        <v>2.499169554578532</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45068</v>
       </c>
       <c r="B77">
-        <v>1.425368297743335</v>
+        <v>1.492636335360197</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45070</v>
       </c>
       <c r="B78">
-        <v>1.107721058432193</v>
+        <v>1.194591953294804</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45073</v>
       </c>
       <c r="B79">
-        <v>1.36366592597274</v>
+        <v>1.488995397663345</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45075</v>
       </c>
       <c r="B80">
-        <v>1.63702018457583</v>
+        <v>1.732826729231787</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45079</v>
       </c>
       <c r="B81">
-        <v>1.65442698921213</v>
+        <v>1.723997054447937</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45080</v>
       </c>
       <c r="B82">
-        <v>2.556859419264123</v>
+        <v>2.612201333526169</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45085</v>
       </c>
       <c r="B83">
-        <v>2.467326845031396</v>
+        <v>2.506646119393903</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45087</v>
       </c>
       <c r="B84">
-        <v>1.43081948219733</v>
+        <v>1.500112900175567</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45090</v>
       </c>
       <c r="B85">
-        <v>1.113172242886188</v>
+        <v>1.202068518110174</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45091</v>
       </c>
       <c r="B86">
-        <v>1.369117110426735</v>
+        <v>1.496471962478716</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45092</v>
       </c>
       <c r="B87">
-        <v>1.642471369029825</v>
+        <v>1.740303294047158</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45094</v>
       </c>
       <c r="B88">
-        <v>1.659878173666125</v>
+        <v>1.731473619263307</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45095</v>
       </c>
       <c r="B89">
-        <v>2.562310603718118</v>
+        <v>2.61967789834154</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45096</v>
       </c>
       <c r="B90">
-        <v>2.472778029485391</v>
+        <v>2.514122684209273</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45097</v>
       </c>
       <c r="B91">
-        <v>1.436270666651325</v>
+        <v>1.507589464990938</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45100</v>
       </c>
       <c r="B92">
-        <v>1.118623427340183</v>
+        <v>1.209545082925545</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45101</v>
       </c>
       <c r="B93">
-        <v>1.37456829488073</v>
+        <v>1.503948527294086</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45102</v>
       </c>
       <c r="B94">
-        <v>1.64792255348382</v>
+        <v>1.747779858862528</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45108</v>
       </c>
       <c r="B95">
-        <v>1.66532935812012</v>
+        <v>1.738950184078678</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45109</v>
       </c>
       <c r="B96">
-        <v>2.567761788172112</v>
+        <v>2.62715446315691</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45110</v>
       </c>
       <c r="B97">
-        <v>2.478229213939386</v>
+        <v>2.521599249024644</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45111</v>
       </c>
       <c r="B98">
-        <v>1.441721851105319</v>
+        <v>1.515066029806309</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45112</v>
       </c>
       <c r="B99">
-        <v>1.124074611794178</v>
+        <v>1.217021647740915</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45113</v>
       </c>
       <c r="B100">
-        <v>1.380019479334725</v>
+        <v>1.511425092109457</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45114</v>
       </c>
       <c r="B101">
-        <v>1.653373737937814</v>
+        <v>1.755256423677899</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45117</v>
       </c>
       <c r="B102">
-        <v>1.670780542574115</v>
+        <v>1.746426748894049</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45118</v>
       </c>
       <c r="B103">
-        <v>2.573212972626107</v>
+        <v>2.634631027972281</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45120</v>
       </c>
       <c r="B104">
-        <v>2.483680398393381</v>
+        <v>2.529075813840014</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45121</v>
       </c>
       <c r="B105">
-        <v>1.447173035559314</v>
+        <v>1.522542594621679</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45124</v>
       </c>
       <c r="B106">
-        <v>1.129525796248173</v>
+        <v>1.224498212556286</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45125</v>
       </c>
       <c r="B107">
-        <v>1.385470663788719</v>
+        <v>1.518901656924827</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45127</v>
       </c>
       <c r="B108">
-        <v>1.658824922391809</v>
+        <v>1.762732988493269</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45129</v>
       </c>
       <c r="B109">
-        <v>1.67623172702811</v>
+        <v>1.753903313709419</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45135</v>
       </c>
       <c r="B110">
-        <v>2.578664157080102</v>
+        <v>2.642107592787651</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45136</v>
       </c>
       <c r="B111">
-        <v>2.489131582847376</v>
+        <v>2.536552378655385</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45137</v>
       </c>
       <c r="B112">
-        <v>1.452624220013309</v>
+        <v>1.53001915943705</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45140</v>
       </c>
       <c r="B113">
-        <v>1.134976980702167</v>
+        <v>1.231974777371657</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45147</v>
       </c>
       <c r="B114">
-        <v>1.390921848242714</v>
+        <v>1.526378221740198</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45148</v>
       </c>
       <c r="B115">
-        <v>1.664276106845804</v>
+        <v>1.77020955330864</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45152</v>
       </c>
       <c r="B116">
-        <v>1.681682911482105</v>
+        <v>1.76137987852479</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45155</v>
       </c>
       <c r="B117">
-        <v>2.584115341534097</v>
+        <v>2.649584157603022</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45157</v>
       </c>
       <c r="B118">
-        <v>2.49458276730137</v>
+        <v>2.544028943470755</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45160</v>
       </c>
       <c r="B119">
-        <v>1.458075404467304</v>
+        <v>1.53749572425242</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45161</v>
       </c>
       <c r="B120">
-        <v>1.140428165156163</v>
+        <v>1.239451342187027</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45162</v>
       </c>
       <c r="B121">
-        <v>1.396373032696709</v>
+        <v>1.533854786555568</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45164</v>
       </c>
       <c r="B122">
-        <v>1.669727291299799</v>
+        <v>1.77768611812401</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45165</v>
       </c>
       <c r="B123">
-        <v>1.687134095936099</v>
+        <v>1.76885644334016</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45166</v>
       </c>
       <c r="B124">
-        <v>2.589566525988092</v>
+        <v>2.657060722418393</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45168</v>
       </c>
       <c r="B125">
-        <v>2.500033951755365</v>
+        <v>2.551505508286126</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45170</v>
       </c>
       <c r="B126">
-        <v>1.463526588921299</v>
+        <v>1.544972289067791</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45176</v>
       </c>
       <c r="B127">
-        <v>1.145879349610157</v>
+        <v>1.246927907002398</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45178</v>
       </c>
       <c r="B128">
-        <v>1.401824217150704</v>
+        <v>1.541331351370939</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45180</v>
       </c>
       <c r="B129">
-        <v>1.675178475753794</v>
+        <v>1.785162682939381</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45181</v>
       </c>
       <c r="B130">
-        <v>1.692585280390094</v>
+        <v>1.776333008155531</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45182</v>
       </c>
       <c r="B131">
-        <v>2.595017710442087</v>
+        <v>2.664537287233763</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45183</v>
       </c>
       <c r="B132">
-        <v>2.50548513620936</v>
+        <v>2.558982073101496</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45185</v>
       </c>
       <c r="B133">
-        <v>1.468977773375294</v>
+        <v>1.552448853883161</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45186</v>
       </c>
       <c r="B134">
-        <v>1.151330534064152</v>
+        <v>1.254404471817768</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45189</v>
       </c>
       <c r="B135">
-        <v>1.407275401604699</v>
+        <v>1.54880791618631</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45190</v>
       </c>
       <c r="B136">
-        <v>1.680629660207789</v>
+        <v>1.792639247754751</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45191</v>
       </c>
       <c r="B137">
-        <v>1.69803646484409</v>
+        <v>1.783809572970901</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45192</v>
       </c>
       <c r="B138">
-        <v>2.600468894896081</v>
+        <v>2.672013852049134</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45194</v>
       </c>
       <c r="B139">
-        <v>2.510936320663355</v>
+        <v>2.566458637916867</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45195</v>
       </c>
       <c r="B140">
-        <v>1.474428957829288</v>
+        <v>1.559925418698532</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45198</v>
       </c>
       <c r="B141">
-        <v>1.156781718518147</v>
+        <v>1.261881036633139</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45200</v>
       </c>
       <c r="B142">
-        <v>1.412726586058694</v>
+        <v>1.55628448100168</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45201</v>
       </c>
       <c r="B143">
-        <v>1.686080844661783</v>
+        <v>1.800115812570122</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45202</v>
       </c>
       <c r="B144">
-        <v>1.703487649298084</v>
+        <v>1.791286137786272</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45206</v>
       </c>
       <c r="B145">
-        <v>2.605920079350077</v>
+        <v>2.679490416864504</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45207</v>
       </c>
       <c r="B146">
-        <v>2.51638750511735</v>
+        <v>2.573935202732238</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45209</v>
       </c>
       <c r="B147">
-        <v>1.479880142283283</v>
+        <v>1.567401983513902</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45210</v>
       </c>
       <c r="B148">
-        <v>1.162232902972142</v>
+        <v>1.26935760144851</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45211</v>
       </c>
       <c r="B149">
-        <v>1.418177770512688</v>
+        <v>1.563761045817051</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45212</v>
       </c>
       <c r="B150">
-        <v>1.691532029115778</v>
+        <v>1.807592377385493</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45213</v>
       </c>
       <c r="B151">
-        <v>1.708938833752079</v>
+        <v>1.798762702601642</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45214</v>
       </c>
       <c r="B152">
-        <v>2.611371263804071</v>
+        <v>2.686966981679875</v>
       </c>
       <c r="C152">
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45215</v>
       </c>
       <c r="B153">
-        <v>2.521838689571345</v>
+        <v>2.581411767547608</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45216</v>
       </c>
       <c r="B154">
-        <v>1.485331326737278</v>
+        <v>1.574878548329273</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45217</v>
       </c>
       <c r="B155">
-        <v>1.167684087426136</v>
+        <v>1.27683416626388</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45218</v>
       </c>
       <c r="B156">
-        <v>1.423628954966683</v>
+        <v>1.571237610632421</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45219</v>
       </c>
       <c r="B157">
-        <v>1.696983213569773</v>
+        <v>1.815068942200863</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45221</v>
       </c>
       <c r="B158">
-        <v>1.714390018206074</v>
+        <v>1.806239267417013</v>
       </c>
       <c r="C158">
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45222</v>
       </c>
       <c r="B159">
-        <v>2.616822448258066</v>
+        <v>2.694443546495245</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45223</v>
       </c>
       <c r="B160">
-        <v>2.527289874025339</v>
+        <v>2.588888332362979</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45225</v>
       </c>
       <c r="B161">
-        <v>1.490782511191273</v>
+        <v>1.582355113144644</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45227</v>
       </c>
       <c r="B162">
-        <v>1.173135271880132</v>
+        <v>1.284310731079251</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45228</v>
       </c>
       <c r="B163">
-        <v>1.429080139420678</v>
+        <v>1.578714175447792</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45229</v>
       </c>
       <c r="B164">
-        <v>1.702434398023768</v>
+        <v>1.822545507016234</v>
       </c>
       <c r="C164">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45230</v>
       </c>
       <c r="B165">
-        <v>1.719841202660069</v>
+        <v>1.813715832232384</v>
       </c>
       <c r="C165">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45234</v>
       </c>
       <c r="B166">
-        <v>2.622273632712061</v>
+        <v>2.701920111310616</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45236</v>
       </c>
       <c r="B167">
-        <v>2.532741058479334</v>
+        <v>2.596364897178349</v>
       </c>
       <c r="C167">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45238</v>
       </c>
       <c r="B168">
-        <v>1.496233695645268</v>
+        <v>1.589831677960014</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45239</v>
       </c>
       <c r="B169">
-        <v>1.178586456334126</v>
+        <v>1.291787295894621</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45242</v>
       </c>
       <c r="B170">
-        <v>1.434531323874673</v>
+        <v>1.586190740263162</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45245</v>
       </c>
       <c r="B171">
-        <v>1.707885582477763</v>
+        <v>1.830022071831604</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45248</v>
       </c>
       <c r="B172">
-        <v>1.725292387114064</v>
+        <v>1.821192397047754</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45249</v>
       </c>
       <c r="B173">
-        <v>2.627724817166056</v>
+        <v>2.709396676125986</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45250</v>
       </c>
       <c r="B174">
-        <v>2.538192242933329</v>
+        <v>2.60384146199372</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45251</v>
       </c>
       <c r="B175">
-        <v>1.501684880099263</v>
+        <v>1.597308242775385</v>
       </c>
       <c r="C175">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45252</v>
       </c>
       <c r="B176">
-        <v>1.184037640788121</v>
+        <v>1.299263860709992</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45253</v>
       </c>
       <c r="B177">
-        <v>1.439982508328668</v>
+        <v>1.593667305078533</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45254</v>
       </c>
       <c r="B178">
-        <v>1.713336766931758</v>
+        <v>1.837498636646975</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45256</v>
       </c>
       <c r="B179">
-        <v>1.730743571568059</v>
+        <v>1.828668961863125</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45259</v>
       </c>
       <c r="B180">
-        <v>2.63317600162005</v>
+        <v>2.716873240941357</v>
       </c>
       <c r="C180">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45263</v>
       </c>
       <c r="B181">
-        <v>2.543643427387324</v>
+        <v>2.61131802680909</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45266</v>
       </c>
       <c r="B182">
-        <v>1.507136064553258</v>
+        <v>1.604784807590755</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45267</v>
       </c>
       <c r="B183">
-        <v>1.189488825242116</v>
+        <v>1.306740425525363</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45270</v>
       </c>
       <c r="B184">
-        <v>1.445433692782663</v>
+        <v>1.601143869893903</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45271</v>
       </c>
       <c r="B185">
-        <v>1.718787951385752</v>
+        <v>1.844975201462345</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45273</v>
       </c>
       <c r="B186">
-        <v>1.736194756022053</v>
+        <v>1.836145526678495</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45275</v>
       </c>
       <c r="B187">
-        <v>2.638627186074046</v>
+        <v>2.724349805756728</v>
       </c>
       <c r="C187">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45276</v>
       </c>
       <c r="B188">
-        <v>2.549094611841319</v>
+        <v>2.618794591624461</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45277</v>
       </c>
       <c r="B189">
-        <v>1.512587249007252</v>
+        <v>1.612261372406126</v>
       </c>
       <c r="C189">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45278</v>
       </c>
       <c r="B190">
-        <v>1.194940009696111</v>
+        <v>1.314216990340733</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45279</v>
       </c>
       <c r="B191">
-        <v>1.450884877236657</v>
+        <v>1.608620434709274</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45281</v>
       </c>
       <c r="B192">
-        <v>1.724239135839748</v>
+        <v>1.852451766277716</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45283</v>
       </c>
       <c r="B193">
-        <v>1.741645940476048</v>
+        <v>1.843622091493866</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45284</v>
       </c>
       <c r="B194">
-        <v>2.64407837052804</v>
+        <v>2.731826370572098</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45286</v>
       </c>
       <c r="B195">
-        <v>2.554545796295314</v>
+        <v>2.626271156439831</v>
       </c>
       <c r="C195">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45287</v>
       </c>
       <c r="B196">
-        <v>1.518038433461247</v>
+        <v>1.619737937221496</v>
       </c>
       <c r="C196">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45288</v>
       </c>
       <c r="B197">
-        <v>1.200391194150106</v>
+        <v>1.321693555156104</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45289</v>
       </c>
       <c r="B198">
-        <v>1.456336061690652</v>
+        <v>1.616096999524645</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45293</v>
       </c>
       <c r="B199">
-        <v>1.729690320293742</v>
+        <v>1.859928331093086</v>
       </c>
       <c r="C199">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45295</v>
       </c>
       <c r="B200">
-        <v>1.747097124930043</v>
+        <v>1.851098656309236</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45298</v>
       </c>
       <c r="B201">
-        <v>2.649529554982035</v>
+        <v>2.739302935387469</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45300</v>
       </c>
       <c r="B202">
-        <v>2.559996980749308</v>
+        <v>2.633747721255202</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45303</v>
       </c>
       <c r="B203">
-        <v>1.523489617915242</v>
+        <v>1.627214502036867</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45304</v>
       </c>
       <c r="B204">
-        <v>1.205842378604101</v>
+        <v>1.329170119971474</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45305</v>
       </c>
       <c r="B205">
-        <v>1.461787246144647</v>
+        <v>1.623573564340015</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45306</v>
       </c>
       <c r="B206">
-        <v>1.735141504747737</v>
+        <v>1.867404895908457</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45308</v>
       </c>
       <c r="B207">
-        <v>1.752548309384038</v>
+        <v>1.858575221124607</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45309</v>
       </c>
       <c r="B208">
-        <v>2.65498073943603</v>
+        <v>2.746779500202839</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45310</v>
       </c>
       <c r="B209">
-        <v>2.565448165203303</v>
+        <v>2.641224286070573</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45313</v>
       </c>
       <c r="B210">
-        <v>1.528940802369237</v>
+        <v>1.634691066852237</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45316</v>
       </c>
       <c r="B211">
-        <v>1.211293563058095</v>
+        <v>1.336646684786845</v>
       </c>
       <c r="C211">
         <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45317</v>
       </c>
       <c r="B212">
-        <v>1.467238430598642</v>
+        <v>1.631050129155386</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45318</v>
       </c>
       <c r="B213">
-        <v>1.740592689201732</v>
+        <v>1.874881460723827</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45323</v>
       </c>
       <c r="B214">
-        <v>1.757999493838033</v>
+        <v>1.866051785939977</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45325</v>
       </c>
       <c r="B215">
-        <v>2.660431923890025</v>
+        <v>2.75425606501821</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45326</v>
       </c>
       <c r="B216">
-        <v>2.570899349657298</v>
+        <v>2.648700850885943</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45327</v>
       </c>
       <c r="B217">
-        <v>1.534391986823232</v>
+        <v>1.642167631667608</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45328</v>
       </c>
       <c r="B218">
-        <v>1.21674474751209</v>
+        <v>1.344123249602215</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45329</v>
       </c>
       <c r="B219">
-        <v>1.472689615052637</v>
+        <v>1.638526693970756</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45330</v>
       </c>
       <c r="B220">
-        <v>1.746043873655727</v>
+        <v>1.882358025539198</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45331</v>
       </c>
       <c r="B221">
-        <v>1.763450678292028</v>
+        <v>1.873528350755348</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45332</v>
       </c>
       <c r="B222">
-        <v>2.66588310834402</v>
+        <v>2.76173262983358</v>
       </c>
       <c r="C222">
         <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45333</v>
       </c>
       <c r="B223">
-        <v>2.576350534111293</v>
+        <v>2.656177415701314</v>
       </c>
       <c r="C223">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45335</v>
       </c>
       <c r="B224">
-        <v>1.539843171277226</v>
+        <v>1.649644196482978</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45336</v>
       </c>
       <c r="B225">
-        <v>1.222195931966085</v>
+        <v>1.351599814417586</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45337</v>
       </c>
       <c r="B226">
-        <v>1.478140799506632</v>
+        <v>1.646003258786127</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45338</v>
       </c>
       <c r="B227">
-        <v>1.751495058109722</v>
+        <v>1.889834590354569</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45339</v>
       </c>
       <c r="B228">
-        <v>1.768901862746022</v>
+        <v>1.881004915570718</v>
       </c>
       <c r="C228">
         <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45340</v>
       </c>
       <c r="B229">
-        <v>2.671334292798015</v>
+        <v>2.769209194648951</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45341</v>
       </c>
       <c r="B230">
-        <v>2.581801718565288</v>
+        <v>2.663653980516684</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45342</v>
       </c>
       <c r="B231">
-        <v>1.545294355731222</v>
+        <v>1.657120761298349</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45344</v>
       </c>
       <c r="B232">
-        <v>1.22764711642008</v>
+        <v>1.359076379232956</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45346</v>
       </c>
       <c r="B233">
-        <v>1.483591983960626</v>
+        <v>1.653479823601497</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45348</v>
       </c>
       <c r="B234">
-        <v>1.756946242563717</v>
+        <v>1.897311155169939</v>
       </c>
       <c r="C234">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45350</v>
       </c>
       <c r="B235">
-        <v>1.774353047200017</v>
+        <v>1.888481480386089</v>
       </c>
       <c r="C235">
         <v>3</v>
